--- a/数据整理/stocks/其他/ARE-亚历山大房地产股份有限公司.xlsx
+++ b/数据整理/stocks/其他/ARE-亚历山大房地产股份有限公司.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1239,4 +1240,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005615</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006283</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华美国房地产 (QDII)美元现钞</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>206011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华美国房地产 (QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/ARE-亚历山大房地产股份有限公司.xlsx
+++ b/数据整理/stocks/其他/ARE-亚历山大房地产股份有限公司.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1638,4 +1639,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/ARE-亚历山大房地产股份有限公司.xlsx
+++ b/数据整理/stocks/其他/ARE-亚历山大房地产股份有限公司.xlsx
@@ -1663,12 +1663,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/其他/ARE-亚历山大房地产股份有限公司.xlsx
+++ b/数据整理/stocks/其他/ARE-亚历山大房地产股份有限公司.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1647,7 +1648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1658,17 +1659,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1678,14 +1699,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.79</v>
+          <t>005613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1423</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1694,14 +1737,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.79</v>
+          <t>005614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1423</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1710,13 +1775,287 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>005615</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1423</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>9</v>
       </c>
       <c r="D4" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.42</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/ARE-亚历山大房地产股份有限公司.xlsx
+++ b/数据整理/stocks/其他/ARE-亚历山大房地产股份有限公司.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,395 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005613</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.97</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0769</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>7</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.57</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005614</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.97</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0769</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.79</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005615</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.97</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0769</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.79</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006283</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华美国房地产 (QDII)美元现钞</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0602</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>206011</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏华美国房地产 (QDII)人民币</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.57</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0602</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000179</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发美国房地产指数QDII-人民币</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>85.71</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0209</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000180</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发美国房地产指数QDII - 美元</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>85.71</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0209</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>160140</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.25</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0184</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>160141</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>90.25</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0084</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
+      <c r="D5" t="n">
+        <v>0.42</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -852,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -873,7 +575,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -913,22 +615,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1372</t>
+          <t>0.1423</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -951,22 +653,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1372</t>
+          <t>0.1423</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -989,22 +691,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>91.10</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1372</t>
+          <t>0.1423</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1017,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006283</t>
+          <t>000179</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华美国房地产 (QDII)美元现钞</t>
+          <t>广发美国房地产指数QDII-人民币</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>70.92</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.67</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1180</t>
+          <t>0.0514</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1055,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>206011</t>
+          <t>000180</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏华美国房地产 (QDII)人民币</t>
+          <t>广发美国房地产指数QDII - 美元</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>70.92</t>
+          <t>92.38</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.67</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1180</t>
+          <t>0.0514</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1093,36 +795,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000179</t>
+          <t>160140</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发美国房地产指数QDII-人民币</t>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>85.64</t>
+          <t>89.10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0486</t>
+          <t>0.0316</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1131,111 +833,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000180</t>
+          <t>160141</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发美国房地产指数QDII - 美元</t>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>85.64</t>
+          <t>89.10</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0486</t>
+          <t>0.0103</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>160140</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.61</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0320</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>160141</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.61</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0110</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1648,7 +1274,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1669,7 +1295,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1709,22 +1335,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>92.22</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1423</t>
+          <t>0.1372</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1747,22 +1373,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>92.22</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1423</t>
+          <t>0.1372</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1785,22 +1411,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.10</t>
+          <t>92.22</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>2.76</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1423</t>
+          <t>0.1372</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1813,36 +1439,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000179</t>
+          <t>006283</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发美国房地产指数QDII-人民币</t>
+          <t>鹏华美国房地产 (QDII)美元现钞</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>70.92</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>9.67</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0514</t>
+          <t>0.1180</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1851,36 +1477,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000180</t>
+          <t>206011</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发美国房地产指数QDII - 美元</t>
+          <t>鹏华美国房地产 (QDII)人民币</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.38</t>
+          <t>70.92</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>9.67</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0514</t>
+          <t>0.1180</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1889,36 +1515,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>160140</t>
+          <t>000179</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+          <t>广发美国房地产指数QDII-人民币</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>89.10</t>
+          <t>85.64</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0316</t>
+          <t>0.0486</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1927,35 +1553,111 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>160141</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.10</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0103</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1970,96 +1672,394 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>005613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.57</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>005614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005615</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006283</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华美国房地产 (QDII)美元现钞</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
-      <c r="D3" t="n">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>206011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华美国房地产 (QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
-        <v>0.42</v>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/其他/ARE-亚历山大房地产股份有限公司.xlsx
+++ b/数据整理/stocks/其他/ARE-亚历山大房地产股份有限公司.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.57</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.79</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="4">
@@ -517,7 +518,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>9</v>
       </c>
       <c r="D5" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -549,6 +566,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数（QDII）美元A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>016278</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>016279</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数（QDII）美元C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -863,404 +1164,6 @@
       </c>
       <c r="H8" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005613</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>95.14</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1494</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005614</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>95.14</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1494</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005615</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>95.14</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1494</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006283</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华美国房地产 (QDII)美元现钞</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>76.62</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>9.79</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0979</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>206011</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏华美国房地产 (QDII)人民币</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>76.62</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>9.79</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0979</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000179</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发美国房地产指数QDII-人民币</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>86.74</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0514</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000180</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发美国房地产指数QDII - 美元</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>86.74</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0514</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>160140</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.11</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0293</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>160141</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>89.11</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0090</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1335,22 +1238,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>95.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1372</t>
+          <t>0.1494</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1373,22 +1276,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>95.14</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1372</t>
+          <t>0.1494</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1411,22 +1314,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.97</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>95.14</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1372</t>
+          <t>0.1494</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1449,26 +1352,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>70.92</t>
+          <t>76.62</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.67</t>
+          <t>9.79</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1180</t>
+          <t>0.0979</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1487,26 +1390,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>70.92</t>
+          <t>76.62</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.67</t>
+          <t>9.79</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1180</t>
+          <t>0.0979</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1525,26 +1428,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>85.64</t>
+          <t>86.74</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0486</t>
+          <t>0.0514</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1563,26 +1466,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>85.64</t>
+          <t>86.74</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0486</t>
+          <t>0.0514</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1601,26 +1504,26 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>89.11</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0320</t>
+          <t>0.0293</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1639,26 +1542,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>91.61</t>
+          <t>89.11</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0110</t>
+          <t>0.0090</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1667,6 +1570,404 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005613</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII人民币份额</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美钞</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005615</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根富时发达市场REITs指数QDII美汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006283</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华美国房地产 (QDII)美元现钞</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>70.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>206011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华美国房地产 (QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>70.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000179</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII-人民币</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000180</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发美国房地产指数QDII - 美元</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160140</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160141</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方道琼斯美国精选REIT指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
